--- a/data/trans_dic/P2A_enfcro_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5315221460373167</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.555987323436766</v>
+        <v>0.5559873234367662</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4980120718890002</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3614152189547387</v>
+        <v>0.3513272806728994</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5398249172245518</v>
+        <v>0.5394614285494452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4647933121903617</v>
+        <v>0.4749884750882693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5027576723992384</v>
+        <v>0.4978428309103197</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4382918955187378</v>
+        <v>0.4308845058001615</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7102671853172374</v>
+        <v>0.7103015532613286</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5907189197771098</v>
+        <v>0.5940965256128486</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5929688558270112</v>
+        <v>0.5992525039581988</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4143698541890804</v>
+        <v>0.4125343886763607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.643596388984308</v>
+        <v>0.6414140009421676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5481505824911204</v>
+        <v>0.5471160476590071</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5617574342275328</v>
+        <v>0.5599092749462941</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4799844096122001</v>
+        <v>0.4740870210609539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6544432216145594</v>
+        <v>0.6600314875842659</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5896059996100818</v>
+        <v>0.5982793681514671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.615441878057879</v>
+        <v>0.6101879638353963</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5619903267878018</v>
+        <v>0.5633266497108599</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8177282209724605</v>
+        <v>0.8166063369799954</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7046576971441054</v>
+        <v>0.7024232176393298</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6861963068153231</v>
+        <v>0.6881917359351005</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5058527357833155</v>
+        <v>0.4975617217439369</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7211057187196549</v>
+        <v>0.7194588005122763</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.632191088024344</v>
+        <v>0.6296246295303999</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6364455446851991</v>
+        <v>0.6351107143949761</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5605668372621759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.324387696798009</v>
+        <v>0.3243876967980091</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6007725772798055</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3572245510359874</v>
+        <v>0.364850252175187</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4670689067822842</v>
+        <v>0.464922181415798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5162644912478445</v>
+        <v>0.5142339654341063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2772561328703486</v>
+        <v>0.2791336896641278</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5561640580580736</v>
+        <v>0.5532684657617277</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6418825472331581</v>
+        <v>0.6418729052408492</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6578848379183548</v>
+        <v>0.6582218753789673</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3366510105064106</v>
+        <v>0.3379955949992794</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4709110776455419</v>
+        <v>0.4716184460279507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5660239706079403</v>
+        <v>0.5674842835335195</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.600277982377749</v>
+        <v>0.6002493731748292</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3219859798406457</v>
+        <v>0.3194511948822383</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4549470105369418</v>
+        <v>0.4516807299146062</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5545945488857977</v>
+        <v>0.5556720005282354</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6039080227722863</v>
+        <v>0.6042699211339586</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3750247937052413</v>
+        <v>0.3816560511810482</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6448762329432436</v>
+        <v>0.6423577944519915</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7272369265903766</v>
+        <v>0.7251907349069873</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7375247292054895</v>
+        <v>0.7415878200845963</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4111759251861299</v>
+        <v>0.4104409579298159</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5341119795951915</v>
+        <v>0.5358439107189434</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6301804189466814</v>
+        <v>0.628762591339774</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6611680758069156</v>
+        <v>0.6608114306370445</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3816484577462406</v>
+        <v>0.3803291979410462</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5127877340614182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4000710644146318</v>
+        <v>0.4000710644146319</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6749329043661608</v>
@@ -969,7 +969,7 @@
         <v>0.5600700921043834</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4251515591168635</v>
+        <v>0.4251515591168636</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3829186844119907</v>
+        <v>0.3870921312595888</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5323888604875635</v>
+        <v>0.5364841037487541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4562541678128447</v>
+        <v>0.4607693852868943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3500378674238662</v>
+        <v>0.3551541224885244</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6230973342845463</v>
+        <v>0.6247241995186325</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6180828444476757</v>
+        <v>0.6221337255350409</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5499844718167506</v>
+        <v>0.5525151378210912</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4075662854802179</v>
+        <v>0.4070179498272608</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5192107253737784</v>
+        <v>0.521619406977083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.597950011562875</v>
+        <v>0.5953813597100921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5228509815411029</v>
+        <v>0.5221448048188478</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.393976578270792</v>
+        <v>0.3905353294234929</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4959090033883207</v>
+        <v>0.4948908800661866</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6389368828237078</v>
+        <v>0.6474747484782251</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5673359621382619</v>
+        <v>0.565152988481356</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4540705875583014</v>
+        <v>0.4563683488195302</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7272078007491201</v>
+        <v>0.7286223916982902</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7246699698958237</v>
+        <v>0.7291694560950844</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6603595475423711</v>
+        <v>0.6543009146590907</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4903914515388416</v>
+        <v>0.4920571890798901</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5971388272102357</v>
+        <v>0.5967041405111596</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6692137133702893</v>
+        <v>0.6711419151572864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5992873120908275</v>
+        <v>0.5963488373007243</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4621872609332779</v>
+        <v>0.4590482132756457</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5568042415505201</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4031066983021497</v>
+        <v>0.4031066983021496</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6882143651549496</v>
@@ -1093,7 +1093,7 @@
         <v>0.6983366071800117</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4883311053894356</v>
+        <v>0.4883311053894357</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5977626209285559</v>
@@ -1105,7 +1105,7 @@
         <v>0.6291889183447514</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4483351107436854</v>
+        <v>0.4483351107436853</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4529454083287312</v>
+        <v>0.4476498668495191</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5122894116272633</v>
+        <v>0.5174089294998345</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5002903292975358</v>
+        <v>0.5042574110706172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3404778144915233</v>
+        <v>0.3437566499081992</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6439070998566647</v>
+        <v>0.6409254488562072</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6483595492950955</v>
+        <v>0.6520190724945569</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6424921524194029</v>
+        <v>0.6481053931324716</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4439457811336351</v>
+        <v>0.4408094362832712</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5601129752966947</v>
+        <v>0.5643144822835635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5953336837750153</v>
+        <v>0.5990774395922998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5925398821226598</v>
+        <v>0.5921822147494323</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4124985706846191</v>
+        <v>0.405785518480374</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5560004760252355</v>
+        <v>0.5525899699829253</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6214684896259872</v>
+        <v>0.6176163081352569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6117414021746616</v>
+        <v>0.6109523204643869</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4643905074260367</v>
+        <v>0.4681215879541047</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7364801960914665</v>
+        <v>0.7337447182519882</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7410556110181834</v>
+        <v>0.7442976390915894</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7408594884343565</v>
+        <v>0.7426302221508825</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5307127983535226</v>
+        <v>0.5346553582759277</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6311905618279721</v>
+        <v>0.6345762701869704</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6687045114036827</v>
+        <v>0.6683475271347584</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6647678131059953</v>
+        <v>0.6607477732196263</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4854232603747132</v>
+        <v>0.4843962582369735</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5124679507382758</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09303978327896122</v>
+        <v>0.09303978327896124</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5735178612954063</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3733438299294997</v>
+        <v>0.3701400008917878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4599895861500796</v>
+        <v>0.4580572893475611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4424744958927673</v>
+        <v>0.4460501701687259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06358422842516608</v>
+        <v>0.06558275790884287</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5005931393452413</v>
+        <v>0.505695366855186</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7399962073352858</v>
+        <v>0.7370280851856118</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5340493997789315</v>
+        <v>0.5377127949263096</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08774438122247474</v>
+        <v>0.09392093762734989</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4580939824721418</v>
+        <v>0.4580002359360389</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6239354940447279</v>
+        <v>0.6185388204762789</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5128949754052854</v>
+        <v>0.5118791392576235</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0850889721235475</v>
+        <v>0.0867795094789262</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5078253768717919</v>
+        <v>0.508711240998034</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6067176319880726</v>
+        <v>0.6011220502780336</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5760139778779774</v>
+        <v>0.5798260490343792</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1339163632379675</v>
+        <v>0.1339623700921846</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6373184618302442</v>
+        <v>0.6470428672993458</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8471723715024402</v>
+        <v>0.8476177689976448</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6665494670291255</v>
+        <v>0.6651795571595069</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1444094349409822</v>
+        <v>0.1456890291990617</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5581430204738921</v>
+        <v>0.552318159866476</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.712055298365722</v>
+        <v>0.7111443016412577</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6062031388762583</v>
+        <v>0.6040700358917163</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1300690605472511</v>
+        <v>0.1308255734573489</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.5649611260526721</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5022078996047844</v>
+        <v>0.5022078996047842</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5707447213260388</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4396223673516811</v>
+        <v>0.4426698469279876</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5643854543681078</v>
+        <v>0.5654863083049632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3897598942164223</v>
+        <v>0.3935751429862492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4445062153426514</v>
+        <v>0.4363453505880339</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5791965049595347</v>
+        <v>0.5793411665211585</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7157621570923403</v>
+        <v>0.7177622821456745</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5032538001661789</v>
+        <v>0.508689130119052</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4546544648825153</v>
+        <v>0.4553075444987934</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5299691607664454</v>
+        <v>0.5218840270854593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.660505715245235</v>
+        <v>0.654238169711578</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4658433277658767</v>
+        <v>0.463667471256842</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4619772883772791</v>
+        <v>0.4588988950681267</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5595797118136862</v>
+        <v>0.5631264534197862</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6830564977908914</v>
+        <v>0.6890399386336244</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5105315834086224</v>
+        <v>0.5148267045676301</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5495845333846232</v>
+        <v>0.5476418313744966</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6939037977008787</v>
+        <v>0.6937196863026938</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8166591499056756</v>
+        <v>0.8209317024828718</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6238549326075294</v>
+        <v>0.6213308532328278</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5492943488088137</v>
+        <v>0.5596585352246641</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6125616641107655</v>
+        <v>0.6102058615329834</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7398979346196911</v>
+        <v>0.7352173339505023</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5499012828360937</v>
+        <v>0.550536404703188</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.531218566117308</v>
+        <v>0.5344112665475338</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.4249391074709549</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2119347985995687</v>
+        <v>0.2119347985995686</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.583486212467097</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3713460476742109</v>
+        <v>0.3737574196050277</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5335726430771768</v>
+        <v>0.5374661055659085</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3849457093485342</v>
+        <v>0.3879345609011222</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1753291272304029</v>
+        <v>0.1787262931757955</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.545537659534297</v>
+        <v>0.5442779455947039</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6356869657437473</v>
+        <v>0.6339230969070704</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5029737451099778</v>
+        <v>0.5047379289486932</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2438516985837154</v>
+        <v>0.2478269164953245</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.46840485018162</v>
+        <v>0.4697168453196368</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.594203335854013</v>
+        <v>0.5993469260739522</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4569404999814287</v>
+        <v>0.4561281502694686</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2229666175068007</v>
+        <v>0.2236071281887898</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4492457695456289</v>
+        <v>0.4526942849836321</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6128926912337234</v>
+        <v>0.6133806934014694</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4655496889931625</v>
+        <v>0.4638056539376289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2483682797213133</v>
+        <v>0.2482366265255725</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6192299120609014</v>
+        <v>0.6234556716193496</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7070850382651126</v>
+        <v>0.7096934812651183</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.580243527605152</v>
+        <v>0.5826449349713456</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3037239510190144</v>
+        <v>0.3071056025764013</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5271547275338307</v>
+        <v>0.5289438399311595</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6522542360552995</v>
+        <v>0.6563932004978004</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5134752817670293</v>
+        <v>0.5127589212098326</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2689379706634288</v>
+        <v>0.2689912843571815</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4198639330291814</v>
+        <v>0.4217092412049077</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3999833230203895</v>
+        <v>0.4022989840736798</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4456184106417694</v>
+        <v>0.446327194518604</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2569462473983892</v>
+        <v>0.2574503355423492</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5484569685447911</v>
+        <v>0.5486720404837265</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5306576859204075</v>
+        <v>0.5319120909423352</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5485515957653843</v>
+        <v>0.5544544702905103</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3810466202405433</v>
+        <v>0.3818669403959783</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4954781468537623</v>
+        <v>0.4968950635392451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4782872023899602</v>
+        <v>0.4769683858078517</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.512006280852496</v>
+        <v>0.5099252214402407</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3304958398982915</v>
+        <v>0.3280056373379282</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4973081830387541</v>
+        <v>0.4968322262086955</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4753020337263309</v>
+        <v>0.4763362978636898</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5168891901858259</v>
+        <v>0.5161617938229573</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3219303570364977</v>
+        <v>0.3251551829188958</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6200752366199365</v>
+        <v>0.6250291951792608</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5981859086774258</v>
+        <v>0.6005942624620639</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6243509262586687</v>
+        <v>0.6241790841832233</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.441702978364327</v>
+        <v>0.4413685176291202</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5471523097212893</v>
+        <v>0.548888555163051</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5289213884185726</v>
+        <v>0.5277882325850247</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5627463572606808</v>
+        <v>0.5609692419370473</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3764330043925177</v>
+        <v>0.3737786383313679</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4249510226216046</v>
+        <v>0.427944986904724</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5200356809354589</v>
+        <v>0.5193627601244921</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4791758801188047</v>
+        <v>0.4804664174383064</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3125719783609309</v>
+        <v>0.3124399584707312</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5865265152865727</v>
+        <v>0.587817075332582</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6601338365420476</v>
+        <v>0.659610090325742</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.5961827988013536</v>
+        <v>0.5979066979750358</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3830466159447068</v>
+        <v>0.3823447356682616</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5112409849273009</v>
+        <v>0.5137370196283521</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.5957684434175808</v>
+        <v>0.5958140555911067</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.5448172685143606</v>
+        <v>0.5435196737757257</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3527466889604401</v>
+        <v>0.3525076701828668</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4602890864399785</v>
+        <v>0.4625229735471664</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5540675827139039</v>
+        <v>0.5558982610519254</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5138827481849355</v>
+        <v>0.5155657601347958</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3465911682209585</v>
+        <v>0.3458490884432784</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.6188490451500129</v>
+        <v>0.6198199262428633</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6913946947942763</v>
+        <v>0.6917199729553822</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6287630837305335</v>
+        <v>0.6305770440981406</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4116411238320196</v>
+        <v>0.4116545634969717</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5366915484612661</v>
+        <v>0.5378804098693706</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.620052955198685</v>
+        <v>0.6202370141580524</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.5679689396079676</v>
+        <v>0.568117186863942</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3754536509548334</v>
+        <v>0.3747462531271659</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>98670</v>
+        <v>95916</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>159107</v>
+        <v>159000</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>136538</v>
+        <v>139533</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>160302</v>
+        <v>158735</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>114323</v>
+        <v>112391</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>204021</v>
+        <v>204031</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>170542</v>
+        <v>171517</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>187414</v>
+        <v>189400</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>221211</v>
+        <v>220231</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>374562</v>
+        <v>373292</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>319278</v>
+        <v>318675</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>356663</v>
+        <v>355490</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>131041</v>
+        <v>129430</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>192889</v>
+        <v>194536</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>173203</v>
+        <v>175751</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>196231</v>
+        <v>194555</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>146588</v>
+        <v>146937</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>234888</v>
+        <v>234566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>203437</v>
+        <v>202792</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>216880</v>
+        <v>217511</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>270048</v>
+        <v>265622</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>419671</v>
+        <v>418713</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>368229</v>
+        <v>366734</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>404083</v>
+        <v>403236</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>176138</v>
+        <v>179899</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>236116</v>
+        <v>235031</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>259462</v>
+        <v>258441</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>147125</v>
+        <v>148121</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>280278</v>
+        <v>278819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>336196</v>
+        <v>336191</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>344129</v>
+        <v>344305</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>183978</v>
+        <v>184713</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>469510</v>
+        <v>470215</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>582604</v>
+        <v>584107</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>615681</v>
+        <v>615651</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>346824</v>
+        <v>344094</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>224323</v>
+        <v>222712</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>280363</v>
+        <v>280907</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>303509</v>
+        <v>303691</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>199006</v>
+        <v>202525</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>324985</v>
+        <v>323716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>380901</v>
+        <v>379830</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>385787</v>
+        <v>387913</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>224705</v>
+        <v>224304</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>532522</v>
+        <v>534249</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>648640</v>
+        <v>647180</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>678133</v>
+        <v>677767</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>411089</v>
+        <v>409668</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>122092</v>
+        <v>123423</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>172518</v>
+        <v>173846</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>145347</v>
+        <v>146785</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>110610</v>
+        <v>112226</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>208994</v>
+        <v>209540</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>210779</v>
+        <v>212160</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>184965</v>
+        <v>185816</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>145249</v>
+        <v>145053</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>339698</v>
+        <v>341274</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>397676</v>
+        <v>395968</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>342402</v>
+        <v>341939</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>264900</v>
+        <v>262586</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>158119</v>
+        <v>157794</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>207045</v>
+        <v>209812</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>180733</v>
+        <v>180038</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>143483</v>
+        <v>144209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>243914</v>
+        <v>244389</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>247127</v>
+        <v>248661</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>222085</v>
+        <v>220047</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>174766</v>
+        <v>175360</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>390683</v>
+        <v>390398</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>445071</v>
+        <v>446354</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>392458</v>
+        <v>390533</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>310763</v>
+        <v>308653</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>162458</v>
+        <v>160559</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>191587</v>
+        <v>193502</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>185089</v>
+        <v>186557</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>127048</v>
+        <v>128271</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>239183</v>
+        <v>238076</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>252180</v>
+        <v>253603</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>248826</v>
+        <v>251000</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>187328</v>
+        <v>186004</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>408954</v>
+        <v>412021</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>454200</v>
+        <v>457056</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>448699</v>
+        <v>448428</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>327981</v>
+        <v>322643</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>199421</v>
+        <v>198198</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>232418</v>
+        <v>230977</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>226322</v>
+        <v>226030</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>173285</v>
+        <v>174677</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>273570</v>
+        <v>272554</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>288234</v>
+        <v>289495</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>286922</v>
+        <v>287608</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>223940</v>
+        <v>225604</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>460849</v>
+        <v>463321</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>510177</v>
+        <v>509904</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>503393</v>
+        <v>500349</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>385963</v>
+        <v>385147</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>75904</v>
+        <v>75252</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>97802</v>
+        <v>97391</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>93460</v>
+        <v>94215</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13077</v>
+        <v>13488</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>103957</v>
+        <v>105017</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>162497</v>
+        <v>161845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>116736</v>
+        <v>117537</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20086</v>
+        <v>21500</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>188266</v>
+        <v>188227</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>269671</v>
+        <v>267338</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>220446</v>
+        <v>220010</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>36978</v>
+        <v>37713</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103245</v>
+        <v>103425</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>128999</v>
+        <v>127809</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>121666</v>
+        <v>122471</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27542</v>
+        <v>27551</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>132351</v>
+        <v>134370</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>186031</v>
+        <v>186129</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>145699</v>
+        <v>145400</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>33058</v>
+        <v>33351</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>229383</v>
+        <v>226990</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>307757</v>
+        <v>307363</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>260551</v>
+        <v>259634</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>56526</v>
+        <v>56854</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>119055</v>
+        <v>119880</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>154631</v>
+        <v>154933</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>102555</v>
+        <v>103559</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>120331</v>
+        <v>118122</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>161100</v>
+        <v>161140</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>200436</v>
+        <v>200996</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>137446</v>
+        <v>138931</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>119915</v>
+        <v>120087</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>290929</v>
+        <v>286491</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>365928</v>
+        <v>362456</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>249803</v>
+        <v>248636</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>246907</v>
+        <v>245262</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>151540</v>
+        <v>152501</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>187145</v>
+        <v>188784</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>134333</v>
+        <v>135463</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>148776</v>
+        <v>148250</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>193005</v>
+        <v>192954</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>228690</v>
+        <v>229886</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>170384</v>
+        <v>169695</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>144876</v>
+        <v>147610</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>336269</v>
+        <v>334976</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>409912</v>
+        <v>407319</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>294878</v>
+        <v>295219</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>283913</v>
+        <v>285620</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>228388</v>
+        <v>229871</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>353646</v>
+        <v>356226</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>252739</v>
+        <v>254702</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>126182</v>
+        <v>128627</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>348172</v>
+        <v>347369</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>441073</v>
+        <v>439849</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>347703</v>
+        <v>348922</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>188267</v>
+        <v>191337</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>587027</v>
+        <v>588671</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>806121</v>
+        <v>813099</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>615888</v>
+        <v>614793</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>332609</v>
+        <v>333565</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>276298</v>
+        <v>278419</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>406218</v>
+        <v>406541</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>305660</v>
+        <v>304515</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>178747</v>
+        <v>178653</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>395204</v>
+        <v>397901</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>490613</v>
+        <v>492423</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>401119</v>
+        <v>402779</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>234492</v>
+        <v>237103</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>660655</v>
+        <v>662897</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>884875</v>
+        <v>890490</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>692089</v>
+        <v>691123</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>401187</v>
+        <v>401266</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>312293</v>
+        <v>313665</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>311626</v>
+        <v>313430</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>346951</v>
+        <v>347503</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>205062</v>
+        <v>205464</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>429722</v>
+        <v>429891</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>437184</v>
+        <v>438217</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>453195</v>
+        <v>458072</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>316776</v>
+        <v>317458</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>756747</v>
+        <v>758911</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>766671</v>
+        <v>764557</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>821642</v>
+        <v>818302</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>538511</v>
+        <v>534453</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>369895</v>
+        <v>369541</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>370307</v>
+        <v>371113</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>402441</v>
+        <v>401875</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>256924</v>
+        <v>259497</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>485836</v>
+        <v>489717</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>492817</v>
+        <v>494801</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>515818</v>
+        <v>515676</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>367201</v>
+        <v>366923</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>835669</v>
+        <v>838321</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>847835</v>
+        <v>846019</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>903067</v>
+        <v>900215</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>613361</v>
+        <v>609036</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1392370</v>
+        <v>1402180</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1782047</v>
+        <v>1779741</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1626491</v>
+        <v>1630871</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1104242</v>
+        <v>1103776</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1981989</v>
+        <v>1986350</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2348960</v>
+        <v>2347097</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2113195</v>
+        <v>2119305</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1431428</v>
+        <v>1428805</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3402688</v>
+        <v>3419301</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>4161495</v>
+        <v>4161814</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>3780428</v>
+        <v>3771424</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2564368</v>
+        <v>2562631</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1508157</v>
+        <v>1515476</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1898667</v>
+        <v>1904940</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1744298</v>
+        <v>1750011</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1224424</v>
+        <v>1221803</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2091213</v>
+        <v>2094494</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2460196</v>
+        <v>2461353</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2228677</v>
+        <v>2235107</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1538284</v>
+        <v>1538334</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3572080</v>
+        <v>3579993</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>4331124</v>
+        <v>4332410</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>3941075</v>
+        <v>3942104</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2729441</v>
+        <v>2724299</v>
       </c>
     </row>
     <row r="40">
